--- a/biology/Médecine/Tache_de_Fuchs/Tache_de_Fuchs.xlsx
+++ b/biology/Médecine/Tache_de_Fuchs/Tache_de_Fuchs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tache de Fuchs est une tache noire dans la macula. La maladie a été décrite pour la première fois par l'ophtalmologue Ernst Fuchs.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tache de Fuchs est une maladie dû à une forte myopie. Une hémorragie maculaire survient à la suite d'étirements de la rétine, souvent avec la formation de néovaisseaux, d’où une perte de l’acuité visuelle.
 </t>
@@ -542,7 +556,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes ressemblent à ceux de la dégénérescence maculaire. Le premier indice est le phénomène que des lignes droites sont perçues ondulées. Seulement après quelques jours ou semaines une tache noire se forme à cet endroit. Après cicatrisation complète la tache peut complètement disparaître, cependant souvent la cicatrice reste pigmentée et l’acuité visuelle basse.
 </t>
@@ -573,7 +589,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe pas de traitement. Seulement en cas de formations de néovaisseaux, on peut traiter, après examen angiographique, par un traitement par laser simple, par thérapie photodynamique/photothérapie dynamique (PDT) ou par injection intra-vitréenne d'anti VEGF. Mais d’une part, les vaisseaux peuvent disparaître spontanément, d’autre part, des récidives peuvent s'observer dans plus de la moitié des cas traités.
 </t>
